--- a/OLX_Advertisement_REST_call_specs.xlsx
+++ b/OLX_Advertisement_REST_call_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Ongoing_trainings\Microservices_14_half_days_18_May_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D873FA-06B0-4952-88F8-D83F658107EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B1E19-145D-4043-A9C0-3A69BCFA9479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>Returns all advertisement categories</t>
   </si>
   <si>
-    <t>{"categories": ["Furniture", "Cars", "Mobiles", "Real Estate", "Sports"]}</t>
-  </si>
-  <si>
     <t>{"statusList": [{"id": 1, "status": "OPEN"}, {"id": 2, "status": "CLOSED"}]}</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>OLX Advertisement Application REST API</t>
+  </si>
+  <si>
+    <t>{"categories": [{id:1, category: "Furniture"}, {id:2, category: "Cars", {id:3, category: "Mobiles"}, {id:4, category: "Real Estate"}, {id:5, category:"Sports"}]}</t>
   </si>
 </sst>
 </file>
@@ -316,9 +316,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -346,6 +343,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,12 +732,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="E2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -780,342 +780,342 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
         <v>5</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="9">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="2:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="2:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="2:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="2:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="E15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
         <v>12</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="C18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>14</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="2:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
-        <v>8</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="2:10" ht="300" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>9</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="2:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
-        <v>10</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
-        <v>11</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="2:10" ht="300" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
-        <v>12</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="300" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
-        <v>13</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
-        <v>14</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
